--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Assemble by hand, &lt; 1kg</t>
   </si>
@@ -48,6 +48,108 @@
   </si>
   <si>
     <t>Assemble &gt;20kg</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Coating</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>Cut (scissor, knife)</t>
+  </si>
+  <si>
+    <t>Cutting (manual)</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>Fastener install (every)</t>
+  </si>
+  <si>
+    <t>Hand finish</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Liquid applicator gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machining </t>
+  </si>
+  <si>
+    <t>Machining setup</t>
+  </si>
+  <si>
+    <t>Mill - form cutter</t>
+  </si>
+  <si>
+    <t>Non metal cutting</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>Preparing</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Reamed hole</t>
+  </si>
+  <si>
+    <t>Resin application</t>
+  </si>
+  <si>
+    <t>Sandblasting</t>
+  </si>
+  <si>
+    <t>Sheet metal process</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>Tapping holes</t>
+  </si>
+  <si>
+    <t>Waterjet cut</t>
+  </si>
+  <si>
+    <t>Sheet material</t>
+  </si>
+  <si>
+    <t>Material removal</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Aluminium welding</t>
+  </si>
+  <si>
+    <t>Steel welding</t>
+  </si>
+  <si>
+    <t>Surface operation</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Lamination</t>
+  </si>
+  <si>
+    <t>Install Tie wrap (zip tie, Cable clamp)</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
   </si>
 </sst>
 </file>
@@ -365,20 +467,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -388,8 +491,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -397,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -405,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -413,8 +519,232 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>Assemble by hand, &lt; 1kg</t>
   </si>
@@ -47,24 +47,15 @@
     <t>Assemble by hand, &gt; 1kg</t>
   </si>
   <si>
-    <t>Assemble &gt;20kg</t>
-  </si>
-  <si>
     <t>Bending</t>
   </si>
   <si>
     <t>Coating</t>
   </si>
   <si>
-    <t>Cure</t>
-  </si>
-  <si>
     <t>Cut (scissor, knife)</t>
   </si>
   <si>
-    <t>Cutting (manual)</t>
-  </si>
-  <si>
     <t>Drilled hole</t>
   </si>
   <si>
@@ -80,21 +71,12 @@
     <t>Liquid applicator gun</t>
   </si>
   <si>
-    <t xml:space="preserve">Machining </t>
-  </si>
-  <si>
-    <t>Machining setup</t>
-  </si>
-  <si>
     <t>Mill - form cutter</t>
   </si>
   <si>
     <t>Non metal cutting</t>
   </si>
   <si>
-    <t>Painting</t>
-  </si>
-  <si>
     <t>Preparing</t>
   </si>
   <si>
@@ -104,21 +86,9 @@
     <t>Reamed hole</t>
   </si>
   <si>
-    <t>Resin application</t>
-  </si>
-  <si>
     <t>Sandblasting</t>
   </si>
   <si>
-    <t>Sheet metal process</t>
-  </si>
-  <si>
-    <t>Tape</t>
-  </si>
-  <si>
-    <t>Tapping holes</t>
-  </si>
-  <si>
     <t>Waterjet cut</t>
   </si>
   <si>
@@ -140,16 +110,154 @@
     <t>Surface operation</t>
   </si>
   <si>
-    <t>Composite</t>
-  </si>
-  <si>
-    <t>Lamination</t>
-  </si>
-  <si>
     <t>Install Tie wrap (zip tie, Cable clamp)</t>
   </si>
   <si>
     <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Machining setup, change</t>
+  </si>
+  <si>
+    <t>Safety wire, install</t>
+  </si>
+  <si>
+    <t>Wire locking</t>
+  </si>
+  <si>
+    <t>Threadlock application</t>
+  </si>
+  <si>
+    <t>Assemble  (&gt;20kg)</t>
+  </si>
+  <si>
+    <t>Bolt installation</t>
+  </si>
+  <si>
+    <t>Reaction tool</t>
+  </si>
+  <si>
+    <t>Add with Ratchet for self-locking nuts</t>
+  </si>
+  <si>
+    <t>Micrometre</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Inside micrometer</t>
+  </si>
+  <si>
+    <t>Add for reamed holes</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Profile projector</t>
+  </si>
+  <si>
+    <t>Verification of reamed holes</t>
+  </si>
+  <si>
+    <t>Use of lifting equipment (engine mainly)</t>
+  </si>
+  <si>
+    <t>Glued process for carbon tubes, tripods' grease, …</t>
+  </si>
+  <si>
+    <t>Before coating process, …</t>
+  </si>
+  <si>
+    <t>Verification for complexe machined parts, outside profiles</t>
+  </si>
+  <si>
+    <t>Saw or tubing cut</t>
+  </si>
+  <si>
+    <t>Oil pan surface with engine, …</t>
+  </si>
+  <si>
+    <t>Deburring included</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>To flatten a tube for instance</t>
+  </si>
+  <si>
+    <t>Painting, aerosol apply</t>
+  </si>
+  <si>
+    <t>Tapping holes (Machining)</t>
+  </si>
+  <si>
+    <t>Tapping holes (Manual)</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Cure, Oven</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>for guillotine, exhaust system, … Not costed because just the price of the operation by Abdeco</t>
+  </si>
+  <si>
+    <t>For glued process for tie rods. Doesn't concern Engine &amp; drivetrain system</t>
+  </si>
+  <si>
+    <t>For Tripod joint</t>
+  </si>
+  <si>
+    <t>Plan de joint plenum</t>
+  </si>
+  <si>
+    <t>Exhaust tubes for instance</t>
+  </si>
+  <si>
+    <t>Frein filets, for instance for the excentric mounts</t>
+  </si>
+  <si>
+    <t>Surface cleaning, by hand</t>
+  </si>
+  <si>
+    <t>Machining (CNC)</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Assemble (fittings on hoses)</t>
+  </si>
+  <si>
+    <t>Hoses assembly</t>
+  </si>
+  <si>
+    <t>very particular assembly</t>
+  </si>
+  <si>
+    <t>Press operations</t>
+  </si>
+  <si>
+    <t>Assemble bearing into drexler, needle roller, ...</t>
+  </si>
+  <si>
+    <t>Cut metallic hosses (grinder)</t>
+  </si>
+  <si>
+    <t>Fill with liquids, grease, …</t>
   </si>
 </sst>
 </file>
@@ -191,7 +299,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -467,16 +626,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
@@ -492,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -502,6 +661,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -510,241 +672,555 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C32"/>
+  <autoFilter ref="A1:C45"/>
+  <conditionalFormatting sqref="C2:C20 C22:C53 D4 D30">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C45">
+      <formula1>"Oui,Non"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
+    <sheet name="Fasteners" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
   <si>
     <t>Assemble by hand, &lt; 1kg</t>
   </si>
@@ -258,6 +260,75 @@
   </si>
   <si>
     <t>Fill with liquids, grease, …</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Hose clamps</t>
+  </si>
+  <si>
+    <t>1 price for all the references</t>
+  </si>
+  <si>
+    <t>k-nuts</t>
+  </si>
+  <si>
+    <t>Bolt assembly</t>
+  </si>
+  <si>
+    <t>Bolt grade 8.8</t>
+  </si>
+  <si>
+    <t>The price of k-nuts is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
+  </si>
+  <si>
+    <t>The price of the bolt is determined in a table, the size of the bolt is added as a comment on the BOM.</t>
+  </si>
+  <si>
+    <t>Bolt grade 12.9</t>
+  </si>
+  <si>
+    <t>Nut, grade 12.9</t>
+  </si>
+  <si>
+    <t>Nut, grade 8.8</t>
+  </si>
+  <si>
+    <t>Circlips</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>The price of cirlips is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>The price of washer is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
+  </si>
+  <si>
+    <t>Spring, exhaust system</t>
+  </si>
+  <si>
+    <t>The springs wich maintained all the exaust system assembled.</t>
+  </si>
+  <si>
+    <t>The springs wich are used for keep the guillotine closed when the acceleration pedal is not used.</t>
+  </si>
+  <si>
+    <t>Spring, intake system</t>
+  </si>
+  <si>
+    <t>See table for correct price. Must specified in commentary if straight or 45 ° or…</t>
+  </si>
+  <si>
+    <t>Fitting, aluminium</t>
+  </si>
+  <si>
+    <t>Banjo, aluminium</t>
   </si>
 </sst>
 </file>
@@ -299,7 +370,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -347,6 +418,176 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -628,9 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,18 +1442,18 @@
   </sheetData>
   <autoFilter ref="A1:C45"/>
   <conditionalFormatting sqref="C2:C20 C22:C53 D4 D30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1223,4 +1464,276 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C52"/>
+  <conditionalFormatting sqref="C7:C10 C29:C60 D37 D7:D9 C13 C15:C27 C11:D11">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D4">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D12">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 C15:C52">
+      <formula1>"Oui,Non"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
     <sheet name="Fasteners" sheetId="3" r:id="rId2"/>
+    <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
   <si>
     <t>Assemble by hand, &lt; 1kg</t>
   </si>
@@ -304,9 +306,6 @@
     <t>The price of cirlips is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
   </si>
   <si>
-    <t>Washer</t>
-  </si>
-  <si>
     <t>The price of washer is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
   </si>
   <si>
@@ -329,6 +328,63 @@
   </si>
   <si>
     <t>Banjo, aluminium</t>
+  </si>
+  <si>
+    <t>Washer, aluminium</t>
+  </si>
+  <si>
+    <t>Washer, copper</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Hook Side (Velcro)</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Loop Side (Velcro)</t>
+  </si>
+  <si>
+    <t>Mainly for DTA, overflowbottles maybe ?</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Tubing, Steel</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Raw materials</t>
+  </si>
+  <si>
+    <t>The price depends of the steel grade (see Table).</t>
+  </si>
+  <si>
+    <t>Fluid, engine oil</t>
+  </si>
+  <si>
+    <t>Fluid, demineralized water</t>
+  </si>
+  <si>
+    <t>Fluid, limited slip differential oil 75W140</t>
+  </si>
+  <si>
+    <t>Fluid</t>
+  </si>
+  <si>
+    <t>Lock wire</t>
+  </si>
+  <si>
+    <t>Engine Sealant Paste</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>The price depends of the aluminium grade (see Table).</t>
   </si>
 </sst>
 </file>
@@ -370,7 +426,187 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1442,18 +1678,18 @@
   </sheetData>
   <autoFilter ref="A1:C45"/>
   <conditionalFormatting sqref="C2:C20 C22:C53 D4 D30">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1468,11 +1704,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1734,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -1507,7 +1743,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,7 +1787,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -1560,51 +1796,54 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -1612,104 +1851,335 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C52"/>
-  <conditionalFormatting sqref="C7:C10 C29:C60 D37 D7:D9 C13 C15:C27 C11:D11">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+  <autoFilter ref="A1:C54"/>
+  <conditionalFormatting sqref="C9:C12 C31:C62 D39 D9:D11 C13:D13 C15:C29 D16">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15 C17:C54">
+      <formula1>"Oui,Non"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C58"/>
+  <conditionalFormatting sqref="C13:C16 C35:C66 D43 D13:D15 C17:D17 C19:C33 D20 C5:D8 C11 D3:D4">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C12">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D12">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D18">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1730,7 +2200,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 C15:C52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C58 C5:C19 C2">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -17,8 +17,8 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
   <si>
     <t>Assemble by hand, &lt; 1kg</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Hose clamps</t>
   </si>
   <si>
-    <t>1 price for all the references</t>
-  </si>
-  <si>
     <t>k-nuts</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>Plumbing</t>
   </si>
   <si>
-    <t>Steel</t>
-  </si>
-  <si>
     <t>Raw materials</t>
   </si>
   <si>
@@ -381,10 +375,55 @@
     <t>Engine Sealant Paste</t>
   </si>
   <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
     <t>The price depends of the aluminium grade (see Table).</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, HP</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, MP</t>
+  </si>
+  <si>
+    <t>Hose, Stainless</t>
+  </si>
+  <si>
+    <t>Hose, Silicone</t>
+  </si>
+  <si>
+    <t>"Durite cannelé", cooling</t>
+  </si>
+  <si>
+    <t>Hose fuel system</t>
+  </si>
+  <si>
+    <t>Hose braking lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptater to weld, aluminium </t>
+  </si>
+  <si>
+    <t>Sheet materials</t>
+  </si>
+  <si>
+    <t>Steel, S235</t>
+  </si>
+  <si>
+    <t>Aluminium, 2017A</t>
+  </si>
+  <si>
+    <t>Steel, S355</t>
+  </si>
+  <si>
+    <t>Steel, S700</t>
+  </si>
+  <si>
+    <t>Plastic, Delrin</t>
+  </si>
+  <si>
+    <t>Aluminium, 7075 T6</t>
+  </si>
+  <si>
+    <t>Aluminium, 5754</t>
   </si>
 </sst>
 </file>
@@ -426,7 +465,247 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1678,18 +1957,18 @@
   </sheetData>
   <autoFilter ref="A1:C45"/>
   <conditionalFormatting sqref="C2:C20 C22:C53 D4 D30">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1704,11 +1983,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C59"/>
+  <conditionalFormatting sqref="C10:C17 C36:C67 D44 D10:D16 C18:D18 C20:C34 D21">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D5">
+    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D9">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:D19">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C22:C59">
+      <formula1>"Oui,Non"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1734,38 +2396,38 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -1773,94 +2435,68 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -1868,10 +2504,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
@@ -1879,328 +2515,235 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C54"/>
-  <conditionalFormatting sqref="C9:C12 C31:C62 D39 D9:D11 C13:D13 C15:C29 D16">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D4">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C8">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D8">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+  <autoFilter ref="A1:C65"/>
+  <conditionalFormatting sqref="C20:C23 C42:C73 D50 C24:D24 C26:C40 D27 C11:D12 C18 D7:D10 D17:D22">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:D25">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 C6:C10">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D6">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C4">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D14">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15 C17:C54">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C58"/>
-  <conditionalFormatting sqref="C13:C16 C35:C66 D43 D13:D15 C17:D17 C19:C33 D20 C5:D8 C11 D3:D4">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C12">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D18">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C58 C5:C19 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C65 C2:C26">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
-  <si>
-    <t>Assemble by hand, &lt; 1kg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
   <si>
     <t>Operation</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Costed</t>
   </si>
   <si>
-    <t>Assemble by hand, &gt; 1kg</t>
-  </si>
-  <si>
     <t>Bending</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>Liquid applicator gun</t>
   </si>
   <si>
-    <t>Mill - form cutter</t>
-  </si>
-  <si>
     <t>Non metal cutting</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>Threadlock application</t>
   </si>
   <si>
-    <t>Assemble  (&gt;20kg)</t>
-  </si>
-  <si>
     <t>Bolt installation</t>
   </si>
   <si>
@@ -424,6 +412,18 @@
   </si>
   <si>
     <t>Aluminium, 5754</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Assemble  (&gt;10kg)</t>
+  </si>
+  <si>
+    <t>Aluminium, 7075 T81</t>
+  </si>
+  <si>
+    <t>Price contained with drexler.</t>
   </si>
 </sst>
 </file>
@@ -1382,11 +1382,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B51:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,565 +1399,549 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
       <c r="C43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C45"/>
-  <conditionalFormatting sqref="C2:C20 C22:C53 D4 D30">
+  <autoFilter ref="A1:C43">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Material removal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="D3 D28 C2:C19 C46:C51 C21:C44">
     <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -1964,7 +1949,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -1973,7 +1958,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1987,7 +1972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,278 +1984,278 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2366,11 +2351,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2382,80 +2367,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,54 +2451,54 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2518,71 +2506,82 @@
         <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C65"/>
-  <conditionalFormatting sqref="C20:C23 C42:C73 D50 C24:D24 C26:C40 D27 C11:D12 C18 D7:D10 D17:D22">
+  <autoFilter ref="A1:C66"/>
+  <conditionalFormatting sqref="C21:C24 C43:C74 D51 C25:D25 C27:C41 D28 C12:D13 C19 D8:D11 D18:D23">
     <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2590,7 +2589,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C42">
     <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2598,7 +2597,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2606,7 +2605,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2614,7 +2613,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D25">
+  <conditionalFormatting sqref="C26:D26">
     <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2622,119 +2621,119 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 C7:C11">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D7">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C6:C10">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D6">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C4">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2743,7 +2742,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C65 C2:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C66 C2:C27">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
   <si>
     <t>Operation</t>
   </si>
@@ -282,15 +282,9 @@
     <t>Nut, grade 8.8</t>
   </si>
   <si>
-    <t>Circlips</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>The price of cirlips is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
-  </si>
-  <si>
     <t>The price of washer is correlated to the size (see table). The size of the bolt is added as a comment on the BOM</t>
   </si>
   <si>
@@ -424,6 +418,18 @@
   </si>
   <si>
     <t>Price contained with drexler.</t>
+  </si>
+  <si>
+    <t>Retaining ring, external</t>
+  </si>
+  <si>
+    <t>Retaining ring, internal</t>
+  </si>
+  <si>
+    <t>The price of cirlips is correlated to the size (see table). The size of the circlip is added as a comment on the BOM</t>
+  </si>
+  <si>
+    <t>Hoses materials</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1385,9 +1531,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B51:B52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,9 +1557,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1436,9 +1582,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1475,7 +1621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1511,7 +1657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1533,7 +1679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1544,7 +1690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1597,7 +1743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1647,7 +1793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1716,7 +1862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1758,7 +1904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1825,7 +1971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1850,7 +1996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1861,7 +2007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1872,7 +2018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1886,7 +2032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1937,23 +2083,23 @@
   <autoFilter ref="A1:C43">
     <filterColumn colId="1">
       <filters>
-        <filter val="Material removal"/>
+        <filter val="Assembly"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="D3 D28 C2:C19 C46:C51 C21:C44">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1968,11 +2114,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,177 +2144,177 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -2177,171 +2323,85 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C59"/>
-  <conditionalFormatting sqref="C10:C17 C36:C67 D44 D10:D16 C18:D18 C20:C34 D21">
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D5">
-    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C9">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D9">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D19">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+  <autoFilter ref="A1:C53"/>
+  <conditionalFormatting sqref="C30:C61 D38 C12:D12 C14:C28 D15 C4:D5 C6:C9 D6:D8">
+    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D3">
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D13">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C22:C59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C53 C2:C3 C4:C14">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2351,11 +2411,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="A19:D19"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2381,99 +2441,102 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -2481,21 +2544,35 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2503,10 +2580,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -2514,130 +2591,245 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>100</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C66"/>
-  <conditionalFormatting sqref="C21:C24 C43:C74 D51 C25:D25 C27:C41 D28 C12:D13 C19 D8:D11 D18:D23">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+  <autoFilter ref="A1:C72"/>
+  <conditionalFormatting sqref="C27:C30 C49:C80 D57 C31:D31 C33:C47 D34 C18:D19 C25 D11:D13 D24:D29">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:D32">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3 C9 C11:C13">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 D9">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2 C7:C11">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2645,7 +2837,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2653,7 +2845,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="C4:C6">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2661,7 +2853,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="D4:D6">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2669,7 +2861,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="C7">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2677,7 +2869,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="D7">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2685,7 +2877,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2693,7 +2885,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C5">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2701,7 +2893,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
+  <conditionalFormatting sqref="C14:D17">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2709,7 +2901,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2717,7 +2909,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="C8">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2725,7 +2917,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="D8">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2733,7 +2925,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="C10:D10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2742,7 +2934,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C66 C2:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C72 C2:C33">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="157">
   <si>
     <t>Operation</t>
   </si>
@@ -303,12 +303,6 @@
     <t>See table for correct price. Must specified in commentary if straight or 45 ° or…</t>
   </si>
   <si>
-    <t>Fitting, aluminium</t>
-  </si>
-  <si>
-    <t>Banjo, aluminium</t>
-  </si>
-  <si>
     <t>Washer, aluminium</t>
   </si>
   <si>
@@ -360,12 +354,6 @@
     <t>The price depends of the aluminium grade (see Table).</t>
   </si>
   <si>
-    <t>Hose, Stainless Steel Braided Outer, HP</t>
-  </si>
-  <si>
-    <t>Hose, Stainless Steel Braided Outer, MP</t>
-  </si>
-  <si>
     <t>Hose, Stainless</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Hose braking lines</t>
   </si>
   <si>
-    <t xml:space="preserve">Adaptater to weld, aluminium </t>
-  </si>
-  <si>
     <t>Sheet materials</t>
   </si>
   <si>
@@ -430,6 +415,93 @@
   </si>
   <si>
     <t>Hoses materials</t>
+  </si>
+  <si>
+    <t>Hose, rubber</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., straight, aluminium</t>
+  </si>
+  <si>
+    <t>Banjo Bolt</t>
+  </si>
+  <si>
+    <t>Adapter, H.P., Female Flare Tee, Brass</t>
+  </si>
+  <si>
+    <t>Fitting, weld-in, male, aluminium</t>
+  </si>
+  <si>
+    <t>Put the size (Dash 6, Dash3, …)</t>
+  </si>
+  <si>
+    <t>Steel Loop Straps, Rubber-Cushioned</t>
+  </si>
+  <si>
+    <t>Link between muffler attach and frame.</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., 45°, aluminium</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., 90°, aluminium</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., Union Tee, Aluminum</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., Female Flare, Aluminum</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., Union Reducer, Aluminum</t>
+  </si>
+  <si>
+    <t>For pump and regulator (to verify)</t>
+  </si>
+  <si>
+    <t>Adapter, H.P., Union, Steel</t>
+  </si>
+  <si>
+    <t>Banjo fitting, straight, Steel</t>
+  </si>
+  <si>
+    <t>Banjo fitting, 45°, Steel</t>
+  </si>
+  <si>
+    <t>Fitting, H.P., 45°, Steel</t>
+  </si>
+  <si>
+    <t>Fitting, H.P., straight, Steel</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, L.P</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, H.P</t>
+  </si>
+  <si>
+    <t>Mount, vibration damping, Sandwich</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Elastomer</t>
+  </si>
+  <si>
+    <t>Traction test</t>
+  </si>
+  <si>
+    <t>Assembly verification</t>
+  </si>
+  <si>
+    <t>For tie rods</t>
+  </si>
+  <si>
+    <t>Sealing</t>
+  </si>
+  <si>
+    <t>For engine oil, brake line, fuel line</t>
+  </si>
+  <si>
+    <t>First start, Engine</t>
   </si>
 </sst>
 </file>
@@ -471,7 +543,127 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1528,12 +1720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1750,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1568,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1584,7 +1775,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1596,7 +1787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1657,7 +1848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1690,48 +1881,48 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1739,63 +1930,63 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1804,9 +1995,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1815,9 +2006,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1826,179 +2017,179 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
       <c r="C27" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
       </c>
       <c r="D34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -2006,13 +2197,16 @@
       <c r="C37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
@@ -2020,91 +2214,121 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
         <v>55</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C43">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Assembly"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="D3 D28 C2:C19 C46:C51 C21:C44">
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+  <autoFilter ref="A1:C46"/>
+  <conditionalFormatting sqref="D3 D29 C49:C54 C22:C47 D42 D36 C2:C20">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2114,11 +2338,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2144,21 +2368,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -2166,24 +2387,24 @@
       <c r="C3" t="s">
         <v>55</v>
       </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -2192,37 +2413,37 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -2230,10 +2451,13 @@
       <c r="C8" t="s">
         <v>55</v>
       </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -2244,35 +2468,29 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -2281,12 +2499,12 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -2295,113 +2513,163 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C53"/>
-  <conditionalFormatting sqref="C30:C61 D38 C12:D12 C14:C28 D15 C4:D5 C6:C9 D6:D8">
-    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D3">
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13">
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+  <autoFilter ref="A1:C56"/>
+  <conditionalFormatting sqref="C33:C64 D41 C14:D14 C17:C31 D18 C5:D6 C7:C11 D7:D10">
+    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D4">
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D16">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C53 C2:C3 C4:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C56 C2:C17">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2411,11 +2679,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2441,10 +2709,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -2452,91 +2720,85 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -2544,35 +2806,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2580,21 +2845,24 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -2602,158 +2870,372 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C72"/>
-  <conditionalFormatting sqref="C27:C30 C49:C80 D57 C31:D31 C33:C47 D34 C18:D19 C25 D11:D13 D24:D29">
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
+  <autoFilter ref="A1:C84"/>
+  <conditionalFormatting sqref="C39:C42 C61:C92 D69 C43:D43 C45:C59 D46 C29:D31 C37 D21:D24 D36:D41 C5:C6">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:D44">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7 C14 C21:C24">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 D14">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2765,7 +3247,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:D32">
+  <conditionalFormatting sqref="C32">
     <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2773,7 +3255,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2781,63 +3263,63 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 C9 C11:C13">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D9">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D10">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:D28">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2845,7 +3327,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2853,7 +3335,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D6">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2861,7 +3343,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C19:D20">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2869,7 +3351,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2877,7 +3359,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2885,7 +3367,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2893,7 +3375,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D17">
+  <conditionalFormatting sqref="C17:D17">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2901,31 +3383,31 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D18">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:D10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2934,7 +3416,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C72 C2:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47:C84 C2:C45">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
   <si>
     <t>Operation</t>
   </si>
@@ -135,27 +135,12 @@
     <t>Add with Ratchet for self-locking nuts</t>
   </si>
   <si>
-    <t>Micrometre</t>
-  </si>
-  <si>
     <t>Metrology</t>
   </si>
   <si>
-    <t>Inside micrometer</t>
-  </si>
-  <si>
     <t>Add for reamed holes</t>
   </si>
   <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Profile projector</t>
-  </si>
-  <si>
-    <t>Verification of reamed holes</t>
-  </si>
-  <si>
     <t>Use of lifting equipment (engine mainly)</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
   </si>
   <si>
     <t>Before coating process, …</t>
-  </si>
-  <si>
-    <t>Verification for complexe machined parts, outside profiles</t>
   </si>
   <si>
     <t>Saw or tubing cut</t>
@@ -1720,11 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,41 +1732,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,7 +1777,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1806,24 +1788,24 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,18 +1816,18 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,7 +1838,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,43 +1849,43 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,404 +1896,365 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C46"/>
-  <conditionalFormatting sqref="D3 D29 C49:C54 C22:C47 D42 D36 C2:C20">
+  <autoFilter ref="A1:C43"/>
+  <conditionalFormatting sqref="D3 D27 C46:C51 D39 D33 C20:C44 C2:C18">
     <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2319,7 +2262,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2328,7 +2271,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2342,7 +2285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2368,222 +2311,222 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2682,8 +2625,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,7 +2638,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2709,444 +2652,444 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="152">
   <si>
     <t>Operation</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>First start, Engine</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Copper</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="92">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1704,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25:O25"/>
     </sheetView>
   </sheetViews>
@@ -2255,18 +2278,18 @@
   </sheetData>
   <autoFilter ref="A1:C43"/>
   <conditionalFormatting sqref="D3 D27 C46:C51 D39 D33 C20:C44 C2:C18">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2285,7 +2308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C18"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2532,82 +2555,82 @@
   </sheetData>
   <autoFilter ref="A1:C56"/>
   <conditionalFormatting sqref="C33:C64 D41 C14:D14 C17:C31 D18 C5:D6 C7:C11 D7:D10">
-    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="30" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D16">
-    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2622,11 +2645,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,10 +3039,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
@@ -3027,21 +3050,18 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>106</v>
@@ -3055,7 +3075,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>106</v>
@@ -3069,10 +3089,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -3083,18 +3103,40 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C84"/>
-  <conditionalFormatting sqref="C39:C42 C61:C92 D69 C43:D43 C45:C59 D46 C29:D31 C37 D21:D24 D36:D41 C5:C6">
+  <autoFilter ref="A1:C85"/>
+  <conditionalFormatting sqref="C40:C43 C62:C93 D70 C44:D44 C46:C60 D47 C29:D30 C38 D21:D24 D37:D42 C5:C6 C32:D32 D31">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
     <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3102,23 +3144,23 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="C39">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:D45">
     <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3126,7 +3168,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:D44">
+  <conditionalFormatting sqref="C37">
     <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3134,23 +3176,23 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C7 C14 C21:C24">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 D14">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C14 C21:C24">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7 D14">
     <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3158,87 +3200,87 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D10">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D10">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3246,7 +3288,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="C25:D28">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3254,15 +3296,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D28">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3270,7 +3312,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3278,7 +3320,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C19:D20">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3286,7 +3328,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D20">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3294,7 +3336,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3302,7 +3344,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3310,7 +3352,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="C17:D17">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3318,7 +3360,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17">
+  <conditionalFormatting sqref="C18:D18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3326,7 +3368,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D18">
+  <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3334,7 +3376,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C3:D3">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3342,7 +3384,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3">
+  <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3350,7 +3392,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3359,7 +3401,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47:C84 C2:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:C85 C2:C46">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
   <si>
     <t>Operation</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Seal, O-ring, Copper</t>
+  </si>
+  <si>
+    <t>Nut, Low hex. Nut</t>
   </si>
 </sst>
 </file>
@@ -2304,11 +2307,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,21 +2459,18 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -2493,12 +2493,12 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -2507,12 +2507,12 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -2521,26 +2521,26 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -2552,9 +2552,23 @@
         <v>78</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C56"/>
-  <conditionalFormatting sqref="C33:C64 D41 C14:D14 C17:C31 D18 C5:D6 C7:C11 D7:D10">
+  <autoFilter ref="A1:C57"/>
+  <conditionalFormatting sqref="C34:C65 D42 C15:D15 C18:C32 D19 C5:D6 C7:C12 D7:D10">
     <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2562,7 +2576,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="cellIs" dxfId="85" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2578,7 +2592,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2586,7 +2600,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D16">
+  <conditionalFormatting sqref="C16:D17">
     <cfRule type="cellIs" dxfId="79" priority="19" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2594,7 +2608,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2602,7 +2616,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2610,15 +2624,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2635,7 +2649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C56 C2:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C57 C2:C18">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2647,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
   <si>
     <t>Operation</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>Bolt installation</t>
-  </si>
-  <si>
-    <t>Reaction tool</t>
-  </si>
-  <si>
-    <t>Add with Ratchet for self-locking nuts</t>
   </si>
   <si>
     <t>Metrology</t>
@@ -1728,11 +1722,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,44 +1753,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1803,10 +1798,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1814,27 +1809,27 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1842,21 +1837,21 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1875,46 +1870,46 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1922,10 +1917,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1936,13 +1931,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1945,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,35 +1956,35 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1997,10 +1992,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2008,21 +2003,21 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2030,24 +2025,24 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2055,27 +2050,27 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2083,18 +2078,18 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -2102,185 +2097,177 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C43"/>
-  <conditionalFormatting sqref="D3 D27 C46:C51 D39 D33 C20:C44 C2:C18">
+  <autoFilter ref="A1:C42">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Assembly"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="D3 D27 C45:C50 D38 D32 C2:C18 C20:C43">
     <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2297,7 +2284,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2309,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -2323,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2337,233 +2324,233 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2662,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2689,455 +2676,455 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
         <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$C$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
   <si>
     <t>Operation</t>
   </si>
@@ -279,9 +279,6 @@
     <t>See table for correct price. Must specified in commentary if straight or 45 ° or…</t>
   </si>
   <si>
-    <t>Washer, aluminium</t>
-  </si>
-  <si>
     <t>Washer, copper</t>
   </si>
   <si>
@@ -484,6 +481,18 @@
   </si>
   <si>
     <t>Nut, Low hex. Nut</t>
+  </si>
+  <si>
+    <t>Tubing, Steel stainless, to weld</t>
+  </si>
+  <si>
+    <t>Sealing paper</t>
+  </si>
+  <si>
+    <t>To cost</t>
+  </si>
+  <si>
+    <t>Washer, steel stainless</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1722,12 +1771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1801,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1762,7 +1810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1778,7 +1826,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1790,7 +1838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1851,7 +1899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1884,18 +1932,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1909,7 +1957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1973,7 +2021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1984,7 +2032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1995,7 +2043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2017,7 +2065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2031,7 +2079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2070,7 +2118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2123,21 +2171,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
         <v>146</v>
       </c>
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2151,7 +2199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2162,7 +2210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2173,7 +2221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2198,18 +2246,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
         <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>144</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2226,7 +2274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2248,7 +2296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2260,26 +2308,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C42">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Assembly"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C42"/>
   <conditionalFormatting sqref="D3 D27 C45:C50 D38 D32 C2:C18 C20:C43">
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2294,21 +2336,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.21875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -2316,15 +2358,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -2332,8 +2377,11 @@
       <c r="C2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -2344,10 +2392,13 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2357,10 +2408,13 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -2369,12 +2423,15 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -2383,10 +2440,13 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2397,7 +2457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2408,12 +2468,15 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -2422,7 +2485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2432,8 +2495,11 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -2443,10 +2509,13 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -2454,10 +2523,13 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -2465,13 +2537,13 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -2479,11 +2551,11 @@
       <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2493,11 +2565,11 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2507,13 +2579,13 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -2521,13 +2593,13 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -2536,12 +2608,12 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -2550,60 +2622,79 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C57"/>
-  <conditionalFormatting sqref="C34:C65 D42 C15:D15 C18:C32 D19 C5:D6 C7:C12 D7:D10">
-    <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="85" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D4">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="22" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D17">
-    <cfRule type="cellIs" dxfId="79" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <autoFilter ref="A1:D1"/>
+  <conditionalFormatting sqref="C34:D65 E42 C15:E15 E7:E10 C5:E6 C18:D32 E18:E19 C7:D12">
+    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:D33">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C4 E3:E4">
+    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:E17">
+    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D13">
+    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2611,7 +2702,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2619,7 +2710,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2627,16 +2718,16 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C57 C2:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:D57 D19 C2:D18">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2646,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -2662,7 +2753,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2676,10 +2767,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -2687,24 +2778,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -2712,10 +2803,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -2723,10 +2814,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -2734,38 +2825,38 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -2773,38 +2864,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -2812,10 +2903,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -2826,7 +2917,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -2837,94 +2928,94 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -2932,10 +3023,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
         <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -2943,10 +3034,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
@@ -2954,10 +3045,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -2965,10 +3056,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -2976,49 +3067,49 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
@@ -3029,10 +3120,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>47</v>
@@ -3040,10 +3131,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>47</v>
@@ -3051,10 +3142,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -3062,63 +3153,60 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -3126,283 +3214,308 @@
       <c r="C37" t="s">
         <v>47</v>
       </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C85"/>
-  <conditionalFormatting sqref="C40:C43 C62:C93 D70 C44:D44 C46:C60 D47 C29:D30 C38 D21:D24 D37:D42 C5:C6 C32:D32 D31">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+  <autoFilter ref="A1:C87"/>
+  <conditionalFormatting sqref="C42:C45 C64:C95 D72 C46:D46 C48:C62 D49 C29:D30 C40 D21:D24 D39:D44 C5:C6 C32:D33 D31">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:D47">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:D45">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C14 C21:C24">
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 D14">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D38">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D10">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D10">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D28">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D20">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:C85 C2:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:C87 C2:C48">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="154">
   <si>
     <t>Operation</t>
   </si>
@@ -2340,7 +2340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2484,6 +2484,9 @@
       <c r="C9" t="s">
         <v>47</v>
       </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2537,6 +2540,9 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" t="s">
         <v>117</v>
       </c>
@@ -2549,7 +2555,10 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>117</v>
@@ -2565,6 +2574,9 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -2591,6 +2603,9 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
       <c r="E17" t="s">
@@ -2719,10 +2734,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3243,274 +3258,274 @@
   </sheetData>
   <autoFilter ref="A1:C87"/>
   <conditionalFormatting sqref="C42:C45 C64:C95 D72 C46:D46 C48:C62 D49 C29:D30 C40 D21:D24 D39:D44 C5:C6 C32:D33 D31">
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="65" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:D47">
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C14 C21:C24">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 D14">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D38">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D10">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D28">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D20">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="155">
   <si>
     <t>Operation</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Washer, steel stainless</t>
+  </si>
+  <si>
+    <t>Tie wrap</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,227 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="118">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1771,21 +1994,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1793,13 +2016,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1810,7 +2036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1820,11 +2046,11 @@
       <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -1834,11 +2060,11 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +2075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1859,11 +2085,11 @@
       <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1873,11 +2099,11 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +2114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1899,7 +2125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +2136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +2147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1932,7 +2158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -1943,7 +2169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1953,11 +2179,11 @@
       <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1967,11 +2193,11 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1981,11 +2207,11 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2006,11 +2232,11 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2021,7 +2247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2032,7 +2258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2054,7 +2280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2065,7 +2291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2075,11 +2301,11 @@
       <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2090,7 +2316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2100,11 +2326,11 @@
       <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2114,11 +2340,11 @@
       <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2129,7 +2355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2139,11 +2365,11 @@
       <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2153,11 +2379,11 @@
       <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2167,11 +2393,11 @@
       <c r="C31" t="s">
         <v>48</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2181,11 +2407,11 @@
       <c r="C32" t="s">
         <v>47</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2195,11 +2421,11 @@
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2210,7 +2436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2221,7 +2447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2232,7 +2458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2242,11 +2468,11 @@
       <c r="C37" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -2256,11 +2482,11 @@
       <c r="C38" t="s">
         <v>48</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2270,11 +2496,11 @@
       <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2296,7 +2522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2309,24 +2535,24 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C42"/>
-  <conditionalFormatting sqref="D3 D27 C45:C50 D38 D32 C2:C18 C20:C43">
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
+  <conditionalFormatting sqref="E3 E27 C45:D50 E38 E32 C2:D18 C20:D43">
+    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:D19">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D42">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2336,11 +2562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,13 +2595,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -2383,114 +2609,111 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -2501,10 +2724,13 @@
       <c r="D10" t="s">
         <v>47</v>
       </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -2518,231 +2744,655 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
       </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <conditionalFormatting sqref="C34:D65 E42 C15:E15 E7:E10 C5:E6 C18:D32 E18:E19 C7:D12">
-    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33">
-    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C4 E3:E4">
-    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:E17">
-    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="26" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13">
-    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D14">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+  <conditionalFormatting sqref="C49:D80 E57 C29:E29 C33:D47 E33:E34 C18:E19 C14:C17 E14:E17 C23:D26 E23:E24 C3 E3 C21:E21 C20 E20">
+    <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="94" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:D48">
+    <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11 E10:E11">
+    <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="90" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:E32 C30 E30">
+    <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="82" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:D27">
+    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:D28">
+    <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:D57 D19 C2:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:D72 D34 C2:D33">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2752,21 +3402,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2774,204 +3424,249 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -2980,548 +3675,304 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
       <c r="C25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
+      <c r="D25" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C87"/>
-  <conditionalFormatting sqref="C42:C45 C64:C95 D72 C46:D46 C48:C62 D49 C29:D30 C40 D21:D24 D39:D44 C5:C6 C32:D33 D31">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:D47">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C14 C21:C24">
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7 D14">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C38">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D38">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D10">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D28">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D20">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <autoFilter ref="A1:C73"/>
+  <conditionalFormatting sqref="C28:D31 C50:D81 E58 C32:E32 C34:D48 E35 C16 C26:D26 E8:E11 E25:E30 C18:C19 E16:E19">
+    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:D49">
+    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:D27">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:E33">
+    <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2 C7:C11 D3:D25">
+    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 E7">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E24">
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C15 E12:E15">
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3530,7 +3981,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:C87 C2:C48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:D73 C2:D34">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="157">
   <si>
     <t>Operation</t>
   </si>
@@ -399,9 +399,6 @@
     <t>Banjo Bolt</t>
   </si>
   <si>
-    <t>Adapter, H.P., Female Flare Tee, Brass</t>
-  </si>
-  <si>
     <t>Fitting, weld-in, male, aluminium</t>
   </si>
   <si>
@@ -496,6 +493,15 @@
   </si>
   <si>
     <t>Tie wrap</t>
+  </si>
+  <si>
+    <t>Adapter, H.P., Female Flare Tee, Brass, 3 ways</t>
+  </si>
+  <si>
+    <t>Adapter, H.P., Female Flare Tee, Brass, 4 ways</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., Male Flare, Aluminum</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2160,10 +2166,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -2399,16 +2405,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
         <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2474,16 +2480,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
         <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2562,11 +2568,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2595,7 +2602,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -2609,7 +2616,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -2620,13 +2627,10 @@
       <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -2637,16 +2641,19 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -2654,7 +2661,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -2668,10 +2675,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -2682,137 +2689,131 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>136</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -2824,12 +2825,12 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -2841,91 +2842,94 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -2936,24 +2940,27 @@
       <c r="D23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -2965,57 +2972,51 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>77</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
@@ -3027,29 +3028,29 @@
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -3061,12 +3062,12 @@
         <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
@@ -3077,41 +3078,81 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>153</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
-  <conditionalFormatting sqref="C49:D80 E57 C29:E29 C33:D47 E33:E34 C18:E19 C14:C17 E14:E17 C23:D26 E23:E24 C3 E3 C21:E21 C20 E20">
+  <autoFilter ref="A1:D36">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Plumbing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C51:D82 E59 C31:E31 C35:D49 E35:E36 C20:E21 C16:C19 E16:E19 C25:D28 E25:E26 C4 E4 C23:E23 C22 E22">
     <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3119,7 +3160,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:D48">
+  <conditionalFormatting sqref="C50:D50">
     <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3127,7 +3168,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11 E10:E11">
+  <conditionalFormatting sqref="C12:C13 E12:E13">
     <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3135,7 +3176,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:E32 C30 E30">
+  <conditionalFormatting sqref="C33:E34 C32 E32">
     <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3143,7 +3184,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:D27">
+  <conditionalFormatting sqref="C29:D29">
     <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3151,7 +3192,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:D28">
+  <conditionalFormatting sqref="C30:D30">
     <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3159,7 +3200,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3167,7 +3208,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3175,7 +3216,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C9">
     <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3183,175 +3224,175 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C8">
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
     <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3359,7 +3400,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D16">
+  <conditionalFormatting sqref="D14:D18">
     <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3367,7 +3408,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3375,7 +3416,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3383,7 +3424,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3392,7 +3433,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:D72 D34 C2:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:D74 D36 C2:D35">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3424,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3618,7 +3659,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>118</v>
@@ -3635,7 +3676,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>118</v>
@@ -3666,7 +3707,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -3680,7 +3721,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -3694,7 +3735,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
@@ -3776,7 +3817,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
   <si>
     <t>Operation</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Adapter, L.P., Male Flare, Aluminum</t>
+  </si>
+  <si>
+    <t>Brake pad, Brake caliper</t>
   </si>
 </sst>
 </file>
@@ -2568,12 +2571,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2611,7 +2613,7 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,7 +2658,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2701,7 +2703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -2746,7 +2748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>123</v>
@@ -2839,7 +2841,7 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>123</v>
@@ -2856,7 +2858,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>123</v>
@@ -2873,13 +2875,13 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2955,10 +2957,10 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -3110,10 +3112,10 @@
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -3145,13 +3147,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Plumbing"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D36"/>
   <conditionalFormatting sqref="C51:D82 E59 C31:E31 C35:D49 E35:E36 C20:E21 C16:C19 E16:E19 C25:D28 E25:E26 C4 E4 C23:E23 C22 E22">
     <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
       <formula>"Oui"</formula>
@@ -3443,11 +3439,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D25"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,13 +3554,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -3572,10 +3568,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -3586,7 +3582,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -3600,7 +3596,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
@@ -3614,10 +3610,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -3628,7 +3624,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -3642,7 +3638,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>118</v>
@@ -3653,13 +3649,10 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>118</v>
@@ -3671,46 +3664,49 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -3721,10 +3717,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
@@ -3735,10 +3731,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -3749,7 +3745,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
@@ -3760,13 +3756,10 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>103</v>
@@ -3783,7 +3776,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
@@ -3800,10 +3793,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
@@ -3817,21 +3810,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -3843,9 +3839,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C73"/>
-  <conditionalFormatting sqref="C28:D31 C50:D81 E58 C32:E32 C34:D48 E35 C16 C26:D26 E8:E11 E25:E30 C18:C19 E16:E19">
+  <autoFilter ref="A1:C74"/>
+  <conditionalFormatting sqref="C29:D32 C51:D82 E59 C33:E33 C35:D49 E36 C17 C27:D27 E9:E12 E26:E31 C19:C20 E17:E20">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3853,7 +3863,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:D49">
+  <conditionalFormatting sqref="C50:D50">
     <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3861,7 +3871,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:D27">
+  <conditionalFormatting sqref="C28:D28">
     <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3869,7 +3879,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E35">
     <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3877,7 +3887,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:E33">
+  <conditionalFormatting sqref="C34:E34">
     <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3885,7 +3895,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3893,7 +3903,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C7:C11 D3:D25">
+  <conditionalFormatting sqref="C2:D2 C8:C12 D3:D26">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3901,7 +3911,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E7">
+  <conditionalFormatting sqref="E2 E8">
     <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3909,7 +3919,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C24">
+  <conditionalFormatting sqref="C24:C25">
     <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3917,7 +3927,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E24">
+  <conditionalFormatting sqref="E24:E25">
     <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3925,31 +3935,31 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3973,7 +3983,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C6:C7">
     <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3981,7 +3991,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E6:E7">
     <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3989,7 +3999,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3997,7 +4007,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4005,7 +4015,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C15 E12:E15">
+  <conditionalFormatting sqref="C13:C16 E13:E16">
     <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4013,7 +4023,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4022,7 +4032,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:D73 C2:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:D74 C2:D35">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="159">
   <si>
     <t>Operation</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Brake pad, Brake caliper</t>
+  </si>
+  <si>
+    <t>Brake fluid</t>
   </si>
 </sst>
 </file>
@@ -2574,8 +2577,8 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,7 +2929,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3439,11 +3442,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3554,10 +3557,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -3568,13 +3571,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -3582,10 +3585,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -3596,7 +3599,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
@@ -3610,7 +3613,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -3624,10 +3627,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>118</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>118</v>
@@ -3663,13 +3666,10 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>118</v>
@@ -3681,46 +3681,49 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
@@ -3731,10 +3734,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -3759,7 +3762,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>103</v>
@@ -3770,13 +3773,10 @@
       <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -3827,21 +3827,24 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
@@ -3853,9 +3856,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C74"/>
-  <conditionalFormatting sqref="C29:D32 C51:D82 E59 C33:E33 C35:D49 E36 C17 C27:D27 E9:E12 E26:E31 C19:C20 E17:E20">
+  <autoFilter ref="A1:C75"/>
+  <conditionalFormatting sqref="C30:D33 C52:D83 E60 C34:E34 C36:D50 E37 C18 C28:D28 E10:E13 E27:E32 C20:C21 E18:E21">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3863,7 +3880,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:D50">
+  <conditionalFormatting sqref="C51:D51">
     <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3871,7 +3888,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:D28">
+  <conditionalFormatting sqref="C29:D29">
     <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3879,7 +3896,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E36">
     <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3887,7 +3904,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E34">
+  <conditionalFormatting sqref="C35:E35">
     <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3895,7 +3912,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3903,7 +3920,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C8:C12 D3:D26">
+  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D27">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3911,7 +3928,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E8">
+  <conditionalFormatting sqref="E2 E9">
     <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3919,7 +3936,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3927,7 +3944,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
+  <conditionalFormatting sqref="E25:E26">
     <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3935,31 +3952,31 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3983,7 +4000,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
+  <conditionalFormatting sqref="C6:C8">
     <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3991,7 +4008,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
+  <conditionalFormatting sqref="E6:E8">
     <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3999,7 +4016,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4007,7 +4024,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4015,7 +4032,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C16 E13:E16">
+  <conditionalFormatting sqref="C14:C17 E14:E17">
     <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4023,7 +4040,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4032,7 +4049,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:D74 C2:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:D75 C2:D36">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
   <si>
     <t>Operation</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Brake fluid</t>
+  </si>
+  <si>
+    <t>Tubing, Steel, 25CrMo4</t>
+  </si>
+  <si>
+    <t>For the steering column.</t>
   </si>
 </sst>
 </file>
@@ -2576,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
@@ -3442,11 +3448,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,21 +3850,24 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
@@ -3870,9 +3879,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C75"/>
-  <conditionalFormatting sqref="C30:D33 C52:D83 E60 C34:E34 C36:D50 E37 C18 C28:D28 E10:E13 E27:E32 C20:C21 E18:E21">
+  <autoFilter ref="A1:C76"/>
+  <conditionalFormatting sqref="C31:D34 C53:D84 E61 C35:E35 C37:D51 E38 C18 C29:D29 E10:E13 E28:E33 C20:C21 E18:E21">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3880,7 +3903,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:D51">
+  <conditionalFormatting sqref="C52:D52">
     <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3888,7 +3911,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:D29">
+  <conditionalFormatting sqref="C30:D30">
     <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3896,7 +3919,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3904,7 +3927,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:E35">
+  <conditionalFormatting sqref="C36:E36">
     <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3912,7 +3935,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3920,7 +3943,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D27">
+  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D28">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3936,7 +3959,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
+  <conditionalFormatting sqref="C25:C27">
     <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3944,7 +3967,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26">
+  <conditionalFormatting sqref="E25:E27">
     <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4049,7 +4072,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:D75 C2:D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D76 C2:D37">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -3452,7 +3452,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
   <si>
     <t>Operation</t>
   </si>
@@ -72,21 +72,12 @@
     <t>Non metal cutting</t>
   </si>
   <si>
-    <t>Preparing</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
-    <t>Reamed hole</t>
-  </si>
-  <si>
     <t>Sandblasting</t>
   </si>
   <si>
-    <t>Waterjet cut</t>
-  </si>
-  <si>
     <t>Sheet material</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Metrology</t>
   </si>
   <si>
-    <t>Add for reamed holes</t>
-  </si>
-  <si>
     <t>Use of lifting equipment (engine mainly)</t>
   </si>
   <si>
@@ -153,18 +141,9 @@
     <t>Deburring included</t>
   </si>
   <si>
-    <t>Grinding</t>
-  </si>
-  <si>
-    <t>To flatten a tube for instance</t>
-  </si>
-  <si>
     <t>Painting, aerosol apply</t>
   </si>
   <si>
-    <t>Tapping holes (Machining)</t>
-  </si>
-  <si>
     <t>Tapping holes (Manual)</t>
   </si>
   <si>
@@ -514,6 +493,9 @@
   </si>
   <si>
     <t>For the steering column.</t>
+  </si>
+  <si>
+    <t>Set up Welding</t>
   </si>
 </sst>
 </file>
@@ -2012,11 +1994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,52 +2016,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2087,10 +2069,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2098,27 +2080,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2126,21 +2108,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,10 +2130,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2162,176 +2144,176 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2339,27 +2321,24 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,66 +2346,66 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2434,126 +2413,79 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C42"/>
-  <conditionalFormatting sqref="E3 E27 C45:D50 E38 E32 C2:D18 C20:D43">
+  <autoFilter ref="A1:C38"/>
+  <conditionalFormatting sqref="E3 E25 C41:D46 E35 E29 C2:D17 C19:D39">
     <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2561,7 +2493,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D19">
+  <conditionalFormatting sqref="C18:D18">
     <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2570,7 +2502,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D38">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2596,563 +2528,563 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,433 +3396,433 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
   <si>
     <t>Operation</t>
   </si>
@@ -489,13 +489,19 @@
     <t>Brake fluid</t>
   </si>
   <si>
-    <t>Tubing, Steel, 25CrMo4</t>
-  </si>
-  <si>
     <t>For the steering column.</t>
   </si>
   <si>
     <t>Set up Welding</t>
+  </si>
+  <si>
+    <t>Steel, 25CD4</t>
+  </si>
+  <si>
+    <t>Tubing, Steel, 25CD4S</t>
+  </si>
+  <si>
+    <t>Fluide, gasoline 98RON</t>
   </si>
 </sst>
 </file>
@@ -1997,8 +2003,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,7 +2377,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -3380,11 +3386,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3411,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -3422,13 +3429,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -3439,13 +3446,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3456,10 +3463,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -3507,7 +3514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3521,7 +3528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3560,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3574,10 +3581,10 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -3605,7 +3612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3622,7 +3629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3656,7 +3663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -3712,7 +3719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -3729,7 +3736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -3746,7 +3753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -3763,9 +3770,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
@@ -3774,15 +3781,15 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
@@ -3794,10 +3801,10 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -3825,9 +3832,77 @@
         <v>41</v>
       </c>
     </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="38" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="39" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="40" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="41" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="42" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="43" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="44" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="46" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="47" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="48" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C76"/>
-  <conditionalFormatting sqref="C31:D34 C53:D84 E61 C35:E35 C37:D51 E38 C18 C29:D29 E10:E13 E28:E33 C20:C21 E18:E21">
+  <autoFilter ref="A1:C76">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Fluid"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C31:D34 C53:D76 E61 C35:E35 C37:D51 E38 C18 C29:D29 E10:E13 E28:E33 C20:C21 E18:E21 C78:D84">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3875,7 +3950,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D28">
+  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D28 C77:D77">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4004,7 +4079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D76 C2:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D37 C39:D77">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
@@ -3389,7 +3389,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="158">
   <si>
     <t>Operation</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Fluide, gasoline 98RON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel, 30ncd8 </t>
   </si>
 </sst>
 </file>
@@ -2002,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +2524,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3386,12 +3389,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,7 +3420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -3612,7 +3614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -3787,9 +3789,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
@@ -3800,27 +3802,27 @@
       <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
@@ -3832,77 +3834,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="42" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="43" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="44" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="46" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="47" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C76">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Fluid"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="C31:D34 C53:D76 E61 C35:E35 C37:D51 E38 C18 C29:D29 E10:E13 E28:E33 C20:C21 E18:E21 C78:D84">
+  <autoFilter ref="A1:C78"/>
+  <conditionalFormatting sqref="C32:D35 C54:D77 E62 C36:E36 C38:D52 E39 C18 C30:D30 E10:E13 E29:E34 C20:C21 E18:E21 C79:D85">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3910,7 +3872,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:D52">
+  <conditionalFormatting sqref="C53:D53">
     <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3918,7 +3880,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:D30">
+  <conditionalFormatting sqref="C31:D31">
     <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3926,7 +3888,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="E38">
     <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3934,7 +3896,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E36">
+  <conditionalFormatting sqref="C37:E37">
     <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3942,7 +3904,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3950,7 +3912,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D28 C77:D77">
+  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D29 C78:D78">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3966,7 +3928,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
+  <conditionalFormatting sqref="C25:C28">
     <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3974,7 +3936,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E27">
+  <conditionalFormatting sqref="E25:E28">
     <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4079,7 +4041,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D37 C39:D77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D38 C40:D78">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$38</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
   <si>
     <t>Operation</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t xml:space="preserve">Steel, 30ncd8 </t>
+  </si>
+  <si>
+    <t>Quick link chain</t>
+  </si>
+  <si>
+    <t>Boot clamp, ligarex strap with buckle</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2012,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,16 +2527,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
@@ -2731,24 +2737,25 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
-        <v>116</v>
+      <c r="E14">
+        <f>LEN(A14)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -2763,18 +2770,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>116</v>
@@ -2782,7 +2789,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
@@ -2797,9 +2804,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
@@ -2816,7 +2823,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
@@ -2833,10 +2840,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -2845,12 +2852,12 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -2867,55 +2874,58 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -2926,7 +2936,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
@@ -2940,7 +2950,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
@@ -2954,55 +2964,49 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
-      </c>
-      <c r="E30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
@@ -3014,29 +3018,29 @@
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -3048,12 +3052,12 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
@@ -3062,43 +3066,77 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
-  <conditionalFormatting sqref="C51:D82 E59 C31:E31 C35:D49 E35:E36 C20:E21 C16:C19 E16:E19 C25:D28 E25:E26 C4 E4 C23:E23 C22 E22">
+  <autoFilter ref="A1:D38"/>
+  <conditionalFormatting sqref="C53:D84 E61 C33:E33 C37:D51 E37:E38 C21:E22 C17:C20 E17:E20 C26:D30 E26:E27 C4 E4 C24:E24 C23 E23">
     <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3106,7 +3144,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:D50">
+  <conditionalFormatting sqref="C52:D52">
     <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3114,7 +3152,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13 E12:E13">
+  <conditionalFormatting sqref="C12:C14 E12:E14">
     <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3122,7 +3160,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:E34 C32 E32">
+  <conditionalFormatting sqref="C35:E36 C34 E34">
     <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3130,7 +3168,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:D29">
+  <conditionalFormatting sqref="C31:D31">
     <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3138,7 +3176,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:D30">
+  <conditionalFormatting sqref="C32:D32">
     <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3146,7 +3184,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3154,7 +3192,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3178,7 +3216,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D13:D14">
     <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3194,7 +3232,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3202,15 +3240,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3218,15 +3256,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3290,7 +3328,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3346,7 +3384,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D18">
+  <conditionalFormatting sqref="D15:D19">
     <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3354,7 +3392,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3362,7 +3400,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3370,7 +3408,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3379,7 +3417,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:D74 D36 C2:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D76 D38 C2:D37">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3391,9 +3429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -2012,8 +2012,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2529,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="162">
   <si>
     <t>Operation</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Welding</t>
   </si>
   <si>
-    <t>Aluminium welding</t>
-  </si>
-  <si>
-    <t>Steel welding</t>
-  </si>
-  <si>
     <t>Surface operation</t>
   </si>
   <si>
@@ -511,6 +505,18 @@
   </si>
   <si>
     <t>Boot clamp, ligarex strap with buckle</t>
+  </si>
+  <si>
+    <t>Welding (Aluminium)</t>
+  </si>
+  <si>
+    <t>Welding (Steel)</t>
+  </si>
+  <si>
+    <t>Untighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Laser cut, setup, install and remove</t>
   </si>
 </sst>
 </file>
@@ -2009,11 +2015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,52 +2037,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2087,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2095,27 +2101,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2126,18 +2132,18 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2159,29 +2165,29 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2189,27 +2195,27 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2220,287 +2226,303 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C38" t="s">
-        <v>40</v>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C38"/>
-  <conditionalFormatting sqref="E3 E25 C41:D46 E35 E29 C2:D17 C19:D39">
+  <autoFilter ref="A1:C40"/>
+  <conditionalFormatting sqref="E3 E26 C43:D48 E36 E30 C2:D18 C20:D41">
     <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2508,7 +2530,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D18">
+  <conditionalFormatting sqref="C19:D19">
     <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2517,7 +2539,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D40">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2543,210 +2565,210 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <f>LEN(A14)</f>
@@ -2755,383 +2777,383 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
         <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3429,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
@@ -3443,461 +3465,461 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$40</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="163">
   <si>
     <t>Operation</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Coating</t>
   </si>
   <si>
-    <t>Cut (scissor, knife)</t>
-  </si>
-  <si>
     <t>Drilled hole</t>
   </si>
   <si>
@@ -405,12 +402,6 @@
     <t>Adapter, H.P., Union, Steel</t>
   </si>
   <si>
-    <t>Banjo fitting, straight, Steel</t>
-  </si>
-  <si>
-    <t>Banjo fitting, 45°, Steel</t>
-  </si>
-  <si>
     <t>Fitting, H.P., 45°, Steel</t>
   </si>
   <si>
@@ -517,6 +508,18 @@
   </si>
   <si>
     <t>Laser cut, setup, install and remove</t>
+  </si>
+  <si>
+    <t>Banjo fitting, straight, Steel stainless</t>
+  </si>
+  <si>
+    <t>Banjo fitting, 45°, Steel stainless</t>
+  </si>
+  <si>
+    <t>Banjo fitting, straight, Aluminium</t>
+  </si>
+  <si>
+    <t>Cut (scissors, knife)</t>
   </si>
 </sst>
 </file>
@@ -2017,9 +2020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,52 +2040,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2090,10 +2093,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2101,423 +2104,426 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
         <v>133</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2549,11 +2555,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,173 +2571,170 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -2740,81 +2743,81 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <f>LEN(A14)</f>
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <f>LEN(A15)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -2823,165 +2826,168 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
         <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2989,83 +2995,80 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
@@ -3074,91 +3077,108 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
-  <conditionalFormatting sqref="C53:D84 E61 C33:E33 C37:D51 E37:E38 C21:E22 C17:C20 E17:E20 C26:D30 E26:E27 C4 E4 C24:E24 C23 E23">
+  <autoFilter ref="A1:D39"/>
+  <conditionalFormatting sqref="C54:D85 E62 C34:E34 C38:D52 E38:E39 C22:E23 C18:C21 E18:E21 C27:D31 E27:E28 C4 E4 C25:E25 C24 E24">
     <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3166,7 +3186,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:D52">
+  <conditionalFormatting sqref="C53:D53">
     <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3174,7 +3194,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14 E12:E14">
+  <conditionalFormatting sqref="C13:C15 E13:E15">
     <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3182,7 +3202,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:E36 C34 E34">
+  <conditionalFormatting sqref="C36:E37 C35 E35">
     <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3190,7 +3210,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D31">
+  <conditionalFormatting sqref="C32:D32">
     <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3198,7 +3218,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:D32">
+  <conditionalFormatting sqref="C33:D33">
     <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3206,15 +3226,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3222,7 +3242,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="C9:C10">
     <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3230,7 +3250,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3238,7 +3258,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3246,7 +3266,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D9:D10">
     <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3254,7 +3274,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3262,15 +3282,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3278,15 +3298,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3318,7 +3338,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3334,7 +3354,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3342,7 +3362,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3350,7 +3370,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3390,7 +3410,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3398,7 +3418,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3406,7 +3426,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D19">
+  <conditionalFormatting sqref="D16:D20">
     <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3414,7 +3434,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3422,7 +3442,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3430,7 +3450,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3439,7 +3459,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D76 D38 C2:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:D77 D39 C2:D38">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3453,7 +3473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3465,461 +3485,461 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="164">
   <si>
     <t>Operation</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>Cut (scissors, knife)</t>
+  </si>
+  <si>
+    <t>Tripod grease</t>
   </si>
 </sst>
 </file>
@@ -2557,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
@@ -3469,11 +3472,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3885,38 +3888,38 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
@@ -3928,23 +3931,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>151</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C78" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C78"/>
-  <conditionalFormatting sqref="C32:D35 C54:D77 E62 C36:E36 C38:D52 E39 C18 C30:D30 E10:E13 E29:E34 C20:C21 E18:E21 C79:D85">
+  <autoFilter ref="A1:C79"/>
+  <conditionalFormatting sqref="C33:D36 C55:D78 E63 C37:E37 C39:D53 E40 C18 C31:D31 E10:E13 E30:E35 C20:C21 E18:E21 C80:D86">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3952,7 +3969,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:D53">
+  <conditionalFormatting sqref="C54:D54">
     <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3960,7 +3977,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D31">
+  <conditionalFormatting sqref="C32:D32">
     <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3968,7 +3985,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3976,7 +3993,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:E37">
+  <conditionalFormatting sqref="C38:E38">
     <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3984,7 +4001,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3992,7 +4009,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D29 C78:D78">
+  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D30 C79:D79">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4008,7 +4025,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
+  <conditionalFormatting sqref="C25:C29">
     <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4016,7 +4033,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E28">
+  <conditionalFormatting sqref="E25:E29">
     <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4121,7 +4138,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D38 C40:D78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D39 C41:D79">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="167">
   <si>
     <t>Operation</t>
   </si>
@@ -276,9 +276,6 @@
     <t>The price depends of the steel grade (see Table).</t>
   </si>
   <si>
-    <t>Fluid, engine oil</t>
-  </si>
-  <si>
     <t>Fluid, demineralized water</t>
   </si>
   <si>
@@ -523,6 +520,18 @@
   </si>
   <si>
     <t>Tripod grease</t>
+  </si>
+  <si>
+    <t>Fluid, engine oil 10W40</t>
+  </si>
+  <si>
+    <t>Threadlock</t>
+  </si>
+  <si>
+    <t>Fluid, chain oil</t>
+  </si>
+  <si>
+    <t>Aerosol apply</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="124">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2021,11 +2090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2054,10 +2123,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -2065,88 +2134,88 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2154,10 +2223,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2165,10 +2234,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -2176,7 +2245,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2187,10 +2256,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -2198,46 +2267,49 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -2245,32 +2317,32 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2281,7 +2353,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2292,7 +2364,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2303,7 +2375,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2314,113 +2386,110 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2429,26 +2498,29 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -2456,49 +2528,46 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -2506,13 +2575,16 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -2520,7 +2592,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -2529,26 +2601,45 @@
         <v>37</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C40"/>
-  <conditionalFormatting sqref="E3 E26 C43:D48 E36 E30 C2:D18 C20:D41">
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D19">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+  <autoFilter ref="A1:C41"/>
+  <conditionalFormatting sqref="E4 E27 C44:D49 E37 E31 C3:D19 C21:D42">
+    <cfRule type="cellIs" dxfId="123" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="8" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D20">
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D41 C2">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2561,8 +2652,8 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2580,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2591,7 +2682,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -2605,7 +2696,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -2619,7 +2710,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -2631,12 +2722,12 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -2650,7 +2741,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -2664,7 +2755,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -2678,7 +2769,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -2692,7 +2783,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2706,7 +2797,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -2720,7 +2811,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -2734,7 +2825,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -2782,7 +2873,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -2800,7 +2891,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -2812,12 +2903,12 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -2829,12 +2920,12 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -2846,12 +2937,12 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -2863,12 +2954,12 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -2880,12 +2971,12 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -2897,7 +2988,7 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2967,7 +3058,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -2981,7 +3072,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -3023,7 +3114,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -3037,7 +3128,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -3051,7 +3142,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -3063,12 +3154,12 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -3080,7 +3171,7 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3111,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
@@ -3119,7 +3210,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -3131,12 +3222,12 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -3150,7 +3241,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
@@ -3182,282 +3273,282 @@
   </sheetData>
   <autoFilter ref="A1:D39"/>
   <conditionalFormatting sqref="C54:D85 E62 C34:E34 C38:D52 E38:E39 C22:E23 C18:C21 E18:E21 C27:D31 E27:E28 C4 E4 C25:E25 C24 E24">
-    <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="93" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="94" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:D53">
-    <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15 E13:E15">
-    <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="89" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="90" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E37 C35 E35">
-    <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="82" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:D32">
-    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="74" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D33">
-    <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="70" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="66" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="64" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="60" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="50" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3472,11 +3563,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3494,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3505,7 +3596,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -3517,12 +3608,12 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -3534,12 +3625,12 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -3553,7 +3644,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -3565,15 +3656,15 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -3582,15 +3673,15 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -3601,7 +3692,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -3615,7 +3706,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -3629,10 +3720,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -3643,10 +3734,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -3657,10 +3748,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -3671,24 +3762,24 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -3702,24 +3793,21 @@
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -3728,46 +3816,49 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -3778,10 +3869,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -3792,10 +3883,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -3806,27 +3897,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -3840,10 +3928,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -3857,16 +3945,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>80</v>
@@ -3874,271 +3962,302 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>77</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C79"/>
-  <conditionalFormatting sqref="C33:D36 C55:D78 E63 C37:E37 C39:D53 E40 C18 C31:D31 E10:E13 E30:E35 C20:C21 E18:E21 C80:D86">
-    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="76" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D54">
-    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:D32">
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38">
-    <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="64" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="62" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C13 D3:D30 C79:D79">
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E9">
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C29">
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="54" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+  <autoFilter ref="A1:C81"/>
+  <conditionalFormatting sqref="C35:D38 C57:D80 E65 C39:E39 C41:D55 E42 C19 C33:D33 E11:E14 E32:E37 C21:C22 E19:E22 C82:D88">
+    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:D56">
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:D34">
+    <cfRule type="cellIs" dxfId="45" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="43" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:E40">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2 C9:C14 D3:D32 C81:D81">
+    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 E9:E10">
+    <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C17 E14:E17">
-    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C18 E15:E18">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D39 C41:D79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D41 C43:D81">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="169">
   <si>
     <t>Operation</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>Aerosol apply</t>
+  </si>
+  <si>
+    <t>Tie straps, blower</t>
+  </si>
+  <si>
+    <t>Hose, FEP</t>
   </si>
 </sst>
 </file>
@@ -573,47 +579,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2092,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2615,26 +2581,26 @@
   </sheetData>
   <autoFilter ref="A1:C41"/>
   <conditionalFormatting sqref="E4 E27 C44:D49 E37 E31 C3:D19 C21:D42">
-    <cfRule type="cellIs" dxfId="123" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D20">
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2649,11 +2615,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3241,10 +3207,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -3255,7 +3221,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -3266,294 +3232,308 @@
       <c r="D39" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
-  <conditionalFormatting sqref="C54:D85 E62 C34:E34 C38:D52 E38:E39 C22:E23 C18:C21 E18:E21 C27:D31 E27:E28 C4 E4 C25:E25 C24 E24">
-    <cfRule type="cellIs" dxfId="119" priority="93" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="94" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:D53">
-    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
+  <autoFilter ref="A1:D40"/>
+  <conditionalFormatting sqref="C55:D86 E63 C34:E34 C39:D53 E39:E40 C22:E23 C18:C21 E18:E21 C27:D31 E27:E28 C4 E4 C25:E25 C24 E24">
+    <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="94" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:D54">
+    <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15 E13:E15">
-    <cfRule type="cellIs" dxfId="115" priority="89" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="90" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E37 C35 E35">
-    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="90" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:E38 C35 E35">
+    <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="82" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:D32">
-    <cfRule type="cellIs" dxfId="111" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D33">
-    <cfRule type="cellIs" dxfId="109" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="70" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="105" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="103" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="101" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="99" priority="59" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="97" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="95" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="87" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="83" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="73" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:D77 D39 C2:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41:D78 D40 C2:D39">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3563,11 +3543,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3776,7 +3756,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
@@ -3790,7 +3770,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>107</v>
@@ -3804,7 +3784,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>107</v>
@@ -3815,13 +3795,10 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>107</v>
@@ -3833,46 +3810,49 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -3883,10 +3863,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -3897,10 +3877,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -3911,7 +3891,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
         <v>92</v>
@@ -3922,13 +3902,10 @@
       <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>92</v>
@@ -3945,7 +3922,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -3962,16 +3939,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>80</v>
@@ -3979,35 +3956,38 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -4021,38 +4001,38 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -4064,200 +4044,214 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>150</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>83</v>
       </c>
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C81"/>
-  <conditionalFormatting sqref="C35:D38 C57:D80 E65 C39:E39 C41:D55 E42 C19 C33:D33 E11:E14 E32:E37 C21:C22 E19:E22 C82:D88">
-    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:D56">
-    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="45" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="43" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:E40">
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C14 D3:D32 C81:D81">
-    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
+  <autoFilter ref="A1:C82"/>
+  <conditionalFormatting sqref="C36:D39 C58:D81 E66 C40:E40 C42:D56 E43 C20 C34:D34 E11:E15 E33:E38 C22:C23 E20:E23 C83:D89">
+    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:D57">
+    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:D35">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:E41">
+    <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2 C9:C15 D3:D33 C82:D82">
+    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E9:E10">
-    <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C31">
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C32">
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="cellIs" dxfId="19" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="17" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C18 E15:E18">
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19 E16:E19">
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D41 C43:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D42 C44:D82">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -2059,8 +2059,8 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,9 +2617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2848,7 +2848,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <f>LEN(A15)</f>
@@ -3103,7 +3103,7 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3545,9 +3545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -17,9 +17,9 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="172">
   <si>
     <t>Operation</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t>Hose, FEP</t>
+  </si>
+  <si>
+    <t>Tubing, Aluminum, 2017A</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>Fuel check valve, in-line, aluminium</t>
   </si>
 </sst>
 </file>
@@ -2056,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,7 +2253,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2252,38 +2261,38 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2294,32 +2303,32 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2330,7 +2339,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2341,7 +2350,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2352,7 +2361,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2363,113 +2372,110 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2478,26 +2484,29 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -2505,49 +2514,46 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -2555,13 +2561,16 @@
       <c r="C39" t="s">
         <v>37</v>
       </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -2569,7 +2578,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2578,9 +2587,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C41"/>
-  <conditionalFormatting sqref="E4 E27 C44:D49 E37 E31 C3:D19 C21:D42">
+  <autoFilter ref="A1:C42"/>
+  <conditionalFormatting sqref="E4 E28 C45:D50 E38 E32 C3:D20 C22:D43">
     <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2588,7 +2608,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:D20">
+  <conditionalFormatting sqref="C21:D21">
     <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2605,7 +2625,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D41 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D42 C2">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2615,11 +2635,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2959,24 +2979,21 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -2993,55 +3010,58 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
         <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -3052,7 +3072,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -3066,7 +3086,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -3080,35 +3100,35 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -3119,22 +3139,19 @@
       <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>106</v>
@@ -3142,24 +3159,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -3171,12 +3188,12 @@
         <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -3188,12 +3205,12 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -3204,10 +3221,13 @@
       <c r="D37" t="s">
         <v>37</v>
       </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
@@ -3221,10 +3241,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -3235,7 +3255,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
@@ -3246,13 +3266,27 @@
       <c r="D40" t="s">
         <v>37</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D40"/>
-  <conditionalFormatting sqref="C55:D86 E63 C34:E34 C39:D53 E39:E40 C22:E23 C18:C21 E18:E21 C27:D31 E27:E28 C4 E4 C25:E25 C24 E24">
+  <autoFilter ref="A1:D41"/>
+  <conditionalFormatting sqref="C56:D87 E64 C35:E35 C40:D54 E40:E41 C23:E24 C18:C22 E18:E22 C28:D32 E28:E29 C4 E4 C26:E26 C25 E25">
     <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3260,7 +3294,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D54">
+  <conditionalFormatting sqref="C55:D55">
     <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3276,7 +3310,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38 C35 E35">
+  <conditionalFormatting sqref="C37:E39 C36 E36">
     <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3284,7 +3318,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:D32">
+  <conditionalFormatting sqref="C33:D33">
     <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3292,7 +3326,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33">
+  <conditionalFormatting sqref="C34:D34">
     <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3300,15 +3334,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3348,7 +3382,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D21:D22">
     <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3444,7 +3478,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3508,7 +3542,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3516,7 +3550,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3524,7 +3558,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3533,7 +3567,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41:D78 D40 C2:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42:D79 D41 C2:D40">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3543,11 +3577,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4015,38 +4049,38 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
@@ -4058,23 +4092,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>150</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C82" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C82"/>
-  <conditionalFormatting sqref="C36:D39 C58:D81 E66 C40:E40 C42:D56 E43 C20 C34:D34 E11:E15 E33:E38 C22:C23 E20:E23 C83:D89">
+  <autoFilter ref="A1:C83"/>
+  <conditionalFormatting sqref="C37:D40 C59:D82 E67 C41:E41 C43:D57 E44 C20 C35:D35 E11:E15 E34:E39 C22:C23 E20:E23 C84:D90">
     <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4082,7 +4130,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:D57">
+  <conditionalFormatting sqref="C58:D58">
     <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4090,7 +4138,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D35">
+  <conditionalFormatting sqref="C36:D36">
     <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4098,7 +4146,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4106,7 +4154,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:E41">
+  <conditionalFormatting sqref="C42:E42">
     <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4114,7 +4162,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4122,7 +4170,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C15 D3:D33 C82:D82">
+  <conditionalFormatting sqref="C2:D2 C9:C15 D3:D34 C83:D83">
     <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4138,7 +4186,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C32">
+  <conditionalFormatting sqref="C27:C33">
     <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4146,7 +4194,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E32">
+  <conditionalFormatting sqref="E27:E33">
     <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4251,7 +4299,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D42 C44:D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D43 C45:D83">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="170">
   <si>
     <t>Operation</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Hose, Silicone</t>
   </si>
   <si>
-    <t>"Durite cannelé", cooling</t>
-  </si>
-  <si>
     <t>Hose fuel system</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t>Aluminium, 7075 T6</t>
   </si>
   <si>
-    <t>Aluminium, 5754</t>
-  </si>
-  <si>
     <t>Assemble by hand</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
     <t>First start, Engine</t>
   </si>
   <si>
-    <t>Seal, O-ring, Copper</t>
-  </si>
-  <si>
     <t>Nut, Low hex. Nut</t>
   </si>
   <si>
@@ -486,9 +477,6 @@
     <t>Fluide, gasoline 98RON</t>
   </si>
   <si>
-    <t xml:space="preserve">Steel, 30ncd8 </t>
-  </si>
-  <si>
     <t>Quick link chain</t>
   </si>
   <si>
@@ -547,6 +535,12 @@
   </si>
   <si>
     <t>Fuel check valve, in-line, aluminium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel, 30NCD8 </t>
+  </si>
+  <si>
+    <t>"Durite annelé", cooling</t>
   </si>
 </sst>
 </file>
@@ -588,67 +582,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="114">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2068,8 +2002,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2098,7 +2032,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2109,7 +2043,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2134,7 +2068,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2187,7 +2121,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2242,10 +2176,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -2253,7 +2187,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2303,7 +2237,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2461,21 +2395,21 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2539,16 +2473,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2567,7 +2501,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -2578,7 +2512,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2589,7 +2523,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -2601,26 +2535,26 @@
   </sheetData>
   <autoFilter ref="A1:C42"/>
   <conditionalFormatting sqref="E4 E28 C45:D50 E38 E32 C3:D20 C22:D43">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2637,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2657,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2668,7 +2602,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -2682,7 +2616,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -2696,7 +2630,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -2708,12 +2642,12 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -2727,7 +2661,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -2741,7 +2675,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -2755,7 +2689,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -2769,7 +2703,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2783,7 +2717,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -2797,7 +2731,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -2811,7 +2745,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -2859,7 +2793,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -2877,7 +2811,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -2889,12 +2823,12 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -2906,12 +2840,12 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -2923,12 +2857,12 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -2940,12 +2874,12 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -2957,12 +2891,12 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -2974,12 +2908,12 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
@@ -3072,7 +3006,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -3114,7 +3048,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
@@ -3128,7 +3062,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -3142,7 +3076,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -3154,12 +3088,12 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -3171,7 +3105,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3210,7 +3144,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -3222,12 +3156,12 @@
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
@@ -3241,7 +3175,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
@@ -3255,7 +3189,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
@@ -3287,282 +3221,282 @@
   </sheetData>
   <autoFilter ref="A1:D41"/>
   <conditionalFormatting sqref="C56:D87 E64 C35:E35 C40:D54 E40:E41 C23:E24 C18:C22 E18:E22 C28:D32 E28:E29 C4 E4 C26:E26 C25 E25">
-    <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="93" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="94" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:D55">
-    <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="92" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15 E13:E15">
-    <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:E39 C36 E36">
-    <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="81" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="82" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D33">
-    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="74" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="70" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="68" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="66" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="64" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="62" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="60" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="50" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3577,11 +3511,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3608,9 +3543,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -3625,9 +3560,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -3642,60 +3577,60 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -3704,37 +3639,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -3746,9 +3681,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -3760,9 +3695,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -3776,86 +3711,89 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -3864,29 +3802,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -3895,105 +3830,108 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4001,305 +3939,261 @@
       <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="C83" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C83"/>
-  <conditionalFormatting sqref="C37:D40 C59:D82 E67 C41:E41 C43:D57 E44 C20 C35:D35 E11:E15 E34:E39 C22:C23 E20:E23 C84:D90">
-    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="76" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:D58">
-    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:D36">
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:E42">
-    <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="64" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="62" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C9:C15 D3:D34 C83:D83">
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E9:E10">
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C33">
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="54" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E33">
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
+  <autoFilter ref="A1:E32">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Oui"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Non"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C35:D38 C57:D80 E65 C39:E39 C41:D55 E42 C33:D33 E10:E14 E32:E37 C19:C21 C82:D88 C3:C4 E3:E4 E19:E21 D3:D32">
+    <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:D56">
+    <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:D34">
+    <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:E40">
+    <cfRule type="cellIs" dxfId="29" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="27" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2 C8:C14 C81:D81">
+    <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 E8:E9">
+    <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C31">
+    <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="54" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E31">
+    <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="52" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="46" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="44" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="cellIs" dxfId="9" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5">
-    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C19 E16:E19">
-    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C18 E15:E18">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D43 C45:D83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D81 C2:D41">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -2001,9 +2001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
         <v>128</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
@@ -2533,7 +2533,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C42"/>
+  <autoFilter ref="A1:C42">
+    <sortState ref="A2:C42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="E4 E28 C45:D50 E38 E32 C3:D20 C22:D43">
     <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"Oui"</formula>
@@ -2572,8 +2576,8 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2726,7 +2730,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3511,12 +3515,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3543,7 +3546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3667,7 +3670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -3965,10 +3968,10 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -4028,18 +4031,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E32">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Oui"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Non"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E32"/>
   <conditionalFormatting sqref="C35:D38 C57:D80 E65 C39:E39 C41:D55 E42 C33:D33 E10:E14 E32:E37 C19:C21 C82:D88 C3:C4 E3:E4 E19:E21 D3:D32">
     <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
       <formula>"Oui"</formula>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
   <si>
     <t>Operation</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Oil pan surface with engine, …</t>
   </si>
   <si>
-    <t>Deburring included</t>
-  </si>
-  <si>
     <t>Painting, aerosol apply</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t>For tie rods</t>
   </si>
   <si>
-    <t>Sealing</t>
-  </si>
-  <si>
     <t>For engine oil, brake line, fuel line</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
     <t>For the steering column.</t>
   </si>
   <si>
-    <t>Set up Welding</t>
-  </si>
-  <si>
     <t>Steel, 25CD4</t>
   </si>
   <si>
@@ -541,6 +532,12 @@
   </si>
   <si>
     <t>"Durite annelé", cooling</t>
+  </si>
+  <si>
+    <t>Sealing verification</t>
+  </si>
+  <si>
+    <t>Paint</t>
   </si>
 </sst>
 </file>
@@ -1999,11 +1996,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2032,55 +2030,58 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2089,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2099,49 +2103,55 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2149,10 +2159,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2160,40 +2170,46 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2204,13 +2220,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2218,13 +2234,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2232,21 +2248,27 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2254,35 +2276,35 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2290,10 +2312,10 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2301,10 +2323,10 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2312,10 +2334,10 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2323,38 +2345,41 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2362,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2373,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
@@ -2387,13 +2412,13 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2401,144 +2426,141 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
       <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
       <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C42">
+  <autoFilter ref="A1:C41">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Surface operation"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:C42">
       <sortCondition ref="A1:A42"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E4 E28 C45:D50 E38 E32 C3:D20 C22:D43">
+  <conditionalFormatting sqref="E4 E28 C44:D49 E37 E32 C3:D20 C22:D42">
     <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2563,7 +2585,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D42 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:D41">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2589,13 +2611,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2606,207 +2628,207 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <f>LEN(A15)</f>
@@ -2815,411 +2837,411 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>109</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
         <v>103</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3515,11 +3537,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3531,13 +3553,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3548,269 +3570,269 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -3821,27 +3843,27 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -3849,92 +3871,92 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -3945,52 +3967,49 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
@@ -4001,38 +4020,55 @@
       <c r="D31" t="s">
         <v>37</v>
       </c>
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E32"/>
-  <conditionalFormatting sqref="C35:D38 C57:D80 E65 C39:E39 C41:D55 E42 C33:D33 E10:E14 E32:E37 C19:C21 C82:D88 C3:C4 E3:E4 E19:E21 D3:D32">
+  <autoFilter ref="A1:E33"/>
+  <conditionalFormatting sqref="C36:D39 C58:D81 E66 C40:E40 C42:D56 E43 C34:D34 E10:E14 E33:E38 C20:C22 C83:D89 C3:C4 E3:E4 E20:E22 D3:D33">
     <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4040,7 +4076,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:D56">
+  <conditionalFormatting sqref="C57:D57">
     <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4048,7 +4084,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D34">
+  <conditionalFormatting sqref="C35:D35">
     <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4056,7 +4092,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4064,7 +4100,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:E40">
+  <conditionalFormatting sqref="C41:E41">
     <cfRule type="cellIs" dxfId="29" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4072,7 +4108,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="cellIs" dxfId="27" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4080,7 +4116,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C8:C14 C81:D81">
+  <conditionalFormatting sqref="C2:D2 C8:C14 C82:D82">
     <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4096,7 +4132,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
+  <conditionalFormatting sqref="C26:C32">
     <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4104,7 +4140,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E31">
+  <conditionalFormatting sqref="E26:E32">
     <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4112,31 +4148,31 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4160,7 +4196,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4168,7 +4204,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4176,7 +4212,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C18 E15:E18">
+  <conditionalFormatting sqref="C15:C19 E15:E19">
     <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4185,7 +4221,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D81 C2:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:D82 C2:D42">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="170">
   <si>
     <t>Operation</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Use of lifting equipment (engine mainly)</t>
   </si>
   <si>
-    <t>Glued process for carbon tubes, tripods' grease, …</t>
-  </si>
-  <si>
     <t>Before coating process, …</t>
   </si>
   <si>
@@ -538,6 +535,12 @@
   </si>
   <si>
     <t>Paint</t>
+  </si>
+  <si>
+    <t>Preparing</t>
+  </si>
+  <si>
+    <t>Glued process for carbon tubes</t>
   </si>
 </sst>
 </file>
@@ -1996,12 +1999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2019,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2030,58 +2032,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2089,10 +2100,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2103,55 +2114,61 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2159,10 +2176,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2170,46 +2187,52 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2220,13 +2243,16 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2234,13 +2260,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2248,27 +2277,27 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2278,33 +2307,36 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2312,10 +2344,10 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2323,10 +2355,10 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2334,10 +2366,10 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2345,222 +2377,255 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
       <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
       <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
         <v>125</v>
       </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
       <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C41">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Surface operation"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:C42">
     <sortState ref="A2:C42">
       <sortCondition ref="A1:A42"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E4 E28 C44:D49 E37 E32 C3:D20 C22:D42">
+  <conditionalFormatting sqref="E4 E29 C45:D50 E38 E33 C3:D20 C22:D43">
     <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2576,7 +2641,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C2:D2">
     <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2585,7 +2650,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:D42">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2611,13 +2676,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2628,207 +2693,207 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <f>LEN(A15)</f>
@@ -2837,411 +2902,411 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
         <v>108</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3539,9 +3604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3553,13 +3618,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3570,500 +3635,500 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Materials" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="172">
   <si>
     <t>Operation</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Glued process for carbon tubes</t>
+  </si>
+  <si>
+    <t>Glue, Structural Epoxy Adhesive</t>
+  </si>
+  <si>
+    <t>Fitting, L.P, female plug, aluminium</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2660,11 +2666,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -3018,24 +3024,21 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -3052,55 +3055,58 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
@@ -3125,7 +3131,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -3139,35 +3145,35 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -3178,22 +3184,19 @@
       <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
         <v>102</v>
@@ -3201,24 +3204,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -3230,12 +3233,12 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -3247,12 +3250,12 @@
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -3263,10 +3266,13 @@
       <c r="D38" t="s">
         <v>35</v>
       </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -3280,10 +3286,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -3294,7 +3300,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -3305,13 +3311,27 @@
       <c r="D41" t="s">
         <v>35</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41"/>
-  <conditionalFormatting sqref="C56:D87 E64 C35:E35 C40:D54 E40:E41 C23:E24 C18:C22 E18:E22 C28:D32 E28:E29 C4 E4 C26:E26 C25 E25">
+  <autoFilter ref="A1:D42"/>
+  <conditionalFormatting sqref="C57:D88 E65 C36:E36 C41:D55 E41:E42 C24:E25 C18:C23 E18:E23 C29:D33 E29:E30 C4 E4 C27:E27 C26 E26">
     <cfRule type="cellIs" dxfId="107" priority="93" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3319,7 +3339,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:D55">
+  <conditionalFormatting sqref="C56:D56">
     <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3335,7 +3355,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:E39 C36 E36">
+  <conditionalFormatting sqref="C38:E40 C37 E37">
     <cfRule type="cellIs" dxfId="101" priority="81" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3343,7 +3363,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33">
+  <conditionalFormatting sqref="C34:D34">
     <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3351,7 +3371,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D34">
+  <conditionalFormatting sqref="C35:D35">
     <cfRule type="cellIs" dxfId="97" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3359,15 +3379,15 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="68" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="68" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
     <cfRule type="cellIs" dxfId="93" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3407,7 +3427,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D22">
+  <conditionalFormatting sqref="D21:D23">
     <cfRule type="cellIs" dxfId="83" priority="49" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3503,7 +3523,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3567,7 +3587,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3575,7 +3595,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3583,7 +3603,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3592,7 +3612,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42:D79 D41 C2:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D80 D42 C2:D41">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3602,11 +3622,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3801,13 +3821,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -3815,7 +3835,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
@@ -3824,12 +3844,12 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
@@ -3843,7 +3863,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
@@ -3854,13 +3874,10 @@
       <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
@@ -3872,71 +3889,74 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -3945,29 +3965,26 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -3984,7 +4001,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -4001,10 +4018,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -4018,35 +4035,38 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
@@ -4060,10 +4080,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -4074,38 +4094,38 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
@@ -4114,26 +4134,40 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>143</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E33"/>
-  <conditionalFormatting sqref="C36:D39 C58:D81 E66 C40:E40 C42:D56 E43 C34:D34 E10:E14 E33:E38 C20:C22 C83:D89 C3:C4 E3:E4 E20:E22 D3:D33">
+  <autoFilter ref="A1:E34"/>
+  <conditionalFormatting sqref="C37:D40 C59:D82 E67 C41:E41 C43:D57 E44 C35:D35 E10:E15 E34:E39 C21:C23 C84:D90 C3:C4 E3:E4 E21:E23 D3:D34">
     <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4141,7 +4175,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:D57">
+  <conditionalFormatting sqref="C58:D58">
     <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4149,7 +4183,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D35">
+  <conditionalFormatting sqref="C36:D36">
     <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4157,7 +4191,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4165,7 +4199,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:E41">
+  <conditionalFormatting sqref="C42:E42">
     <cfRule type="cellIs" dxfId="29" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4173,7 +4207,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="27" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4181,7 +4215,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C8:C14 C82:D82">
+  <conditionalFormatting sqref="C2:D2 C8:C15 C83:D83">
     <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4197,7 +4231,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C32">
+  <conditionalFormatting sqref="C27:C33">
     <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4205,7 +4239,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E32">
+  <conditionalFormatting sqref="E27:E33">
     <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4213,31 +4247,31 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="46" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4261,7 +4295,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4269,7 +4303,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4277,7 +4311,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C19 E15:E19">
+  <conditionalFormatting sqref="C16:C20 E16:E20">
     <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4286,7 +4320,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:D82 C2:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:D83 C2:D43">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="173">
   <si>
     <t>Operation</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Fitting, L.P, female plug, aluminium</t>
+  </si>
+  <si>
+    <t>Thermal protection, adhesive</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
@@ -3622,11 +3625,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4066,21 +4069,21 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
@@ -4094,10 +4097,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -4108,38 +4111,38 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
@@ -4148,26 +4151,40 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>143</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34"/>
-  <conditionalFormatting sqref="C37:D40 C59:D82 E67 C41:E41 C43:D57 E44 C35:D35 E10:E15 E34:E39 C21:C23 C84:D90 C3:C4 E3:E4 E21:E23 D3:D34">
+  <autoFilter ref="A1:E35"/>
+  <conditionalFormatting sqref="C38:D41 C60:D83 E68 C42:E42 C44:D58 E45 C36:D36 E10:E15 E35:E40 C21:C23 C85:D91 C3:C4 E3:E4 E21:E23 D3:D35">
     <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4175,7 +4192,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:D58">
+  <conditionalFormatting sqref="C59:D59">
     <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4183,7 +4200,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:D36">
+  <conditionalFormatting sqref="C37:D37">
     <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4191,7 +4208,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4199,7 +4216,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:E42">
+  <conditionalFormatting sqref="C43:E43">
     <cfRule type="cellIs" dxfId="29" priority="63" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4207,7 +4224,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="cellIs" dxfId="27" priority="61" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4215,7 +4232,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C8:C15 C83:D83">
+  <conditionalFormatting sqref="C2:D2 C8:C15 C84:D84">
     <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4231,7 +4248,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C33">
+  <conditionalFormatting sqref="C27:C34">
     <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4239,7 +4256,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E33">
+  <conditionalFormatting sqref="E27:E34">
     <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4320,7 +4337,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:D83 C2:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:D84 C2:D44">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fasteners!$A$1:$D$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processes!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="174">
   <si>
     <t>Operation</t>
   </si>
@@ -549,7 +549,10 @@
     <t>Fitting, L.P, female plug, aluminium</t>
   </si>
   <si>
-    <t>Thermal protection, adhesive</t>
+    <t>Glue, High temperature resistance</t>
+  </si>
+  <si>
+    <t>Fiberglass Insulation</t>
   </si>
 </sst>
 </file>
@@ -591,47 +594,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="110">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2635,26 +2598,26 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E4 E29 C45:D50 E38 E33 C3:D20 C22:D43">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3335,282 +3298,282 @@
   </sheetData>
   <autoFilter ref="A1:D42"/>
   <conditionalFormatting sqref="C57:D88 E65 C36:E36 C41:D55 E41:E42 C24:E25 C18:C23 E18:E23 C29:D33 E29:E30 C4 E4 C27:E27 C26 E26">
-    <cfRule type="cellIs" dxfId="107" priority="93" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="93" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="94" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:D56">
-    <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="92" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15 E13:E15">
-    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="90" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:E40 C37 E37">
-    <cfRule type="cellIs" dxfId="101" priority="81" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="81" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="82" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="97" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="70" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="67" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="68" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="93" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="66" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="91" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="64" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="89" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="62" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="87" priority="59" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="59" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="60" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="85" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="58" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23">
-    <cfRule type="cellIs" dxfId="83" priority="49" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="49" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="50" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="81" priority="47" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="79" priority="45" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="45" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="46" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="77" priority="43" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="41" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="42" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="cellIs" dxfId="73" priority="39" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="37" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="38" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="69" priority="33" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3625,11 +3588,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3768,21 +3731,21 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -3796,7 +3759,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -3810,7 +3773,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
@@ -3824,49 +3787,49 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
@@ -3875,12 +3838,12 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
@@ -3891,13 +3854,10 @@
       <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
@@ -3908,64 +3868,67 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -3973,10 +3936,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -3987,41 +3950,35 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
@@ -4038,10 +3995,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -4055,49 +4012,55 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
         <v>81</v>
@@ -4111,10 +4074,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -4125,38 +4088,38 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
@@ -4165,106 +4128,104 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>143</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>81</v>
       </c>
-      <c r="C84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E35"/>
-  <conditionalFormatting sqref="C38:D41 C60:D83 E68 C42:E42 C44:D58 E45 C36:D36 E10:E15 E35:E40 C21:C23 C85:D91 C3:C4 E3:E4 E21:E23 D3:D35">
-    <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="76" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:D59">
-    <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="74" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:D37">
-    <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="70" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="66" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:E43">
-    <cfRule type="cellIs" dxfId="29" priority="63" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="64" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="27" priority="61" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="62" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C8:C15 C84:D84">
-    <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E8:E9">
-    <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C34">
-    <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="54" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E34">
-    <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="52" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <autoFilter ref="A1:E36"/>
+  <conditionalFormatting sqref="C39:D42 C61:D84 E69 C43:E43 C45:D59 E46 C37:D37 E11:E17 C23:C25 C86:D92 C3:C4 E3:E4 E23:E25 D3:D8 D10:D36 C29:C35 E29:E41 C9:E9">
+    <cfRule type="cellIs" dxfId="33" priority="75" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="76" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:D60">
+    <cfRule type="cellIs" dxfId="31" priority="73" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="74" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:D38">
+    <cfRule type="cellIs" dxfId="29" priority="69" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="70" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="27" priority="65" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="66" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:E44">
+    <cfRule type="cellIs" dxfId="25" priority="63" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="64" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="23" priority="61" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="62" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2 C8 C85:D85 C10:C17">
+    <cfRule type="cellIs" dxfId="21" priority="57" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="58" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 E8 E10">
+    <cfRule type="cellIs" dxfId="19" priority="55" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="56" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4272,7 +4233,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4280,7 +4241,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4288,7 +4249,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4312,7 +4273,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4320,7 +4281,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4328,7 +4289,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C20 E16:E20">
+  <conditionalFormatting sqref="C18:C22 E18:E22">
     <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -4337,7 +4298,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:D84 C2:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47:D85 C2:D30 C31:D45">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="174">
   <si>
     <t>Operation</t>
   </si>
@@ -1973,9 +1973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,7 +2148,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2266,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -2296,6 +2299,9 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2307,6 +2313,9 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2318,6 +2327,9 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2329,6 +2341,9 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2340,6 +2355,9 @@
       <c r="C25" t="s">
         <v>35</v>
       </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2413,6 +2431,9 @@
       <c r="C30" t="s">
         <v>35</v>
       </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2458,6 +2479,9 @@
       <c r="C33" t="s">
         <v>35</v>
       </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
       <c r="E33" t="s">
         <v>127</v>
       </c>
@@ -2503,6 +2527,9 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2579,6 +2606,9 @@
       <c r="C41" t="s">
         <v>35</v>
       </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -2588,6 +2618,9 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2597,7 +2630,7 @@
       <sortCondition ref="A1:A42"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E4 E29 C45:D50 E38 E33 C3:D20 C22:D43">
+  <conditionalFormatting sqref="E4 E29 C45:D50 E38 E33 C3:D20 C26:D43 C22:C25">
     <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -2605,7 +2638,7 @@
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D21">
+  <conditionalFormatting sqref="C21:D21 D22:D25">
     <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -3590,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fasteners_processes_materials.xlsx
@@ -1974,8 +1974,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2668,8 +2668,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3625,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
